--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/20/seed4/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12.45309999999999</v>
+        <v>12.3073</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>13.1156</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.23029999999999</v>
+        <v>12.84269999999999</v>
       </c>
     </row>
     <row r="6">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.47979999999997</v>
+        <v>-20.26489999999997</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.30499999999999</v>
+        <v>13.31949999999999</v>
       </c>
     </row>
     <row r="12">
@@ -644,12 +644,12 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>13.08229999999999</v>
+        <v>13.06739999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-21.88220000000001</v>
+        <v>-21.95820000000002</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.08469999999999</v>
+        <v>-19.93569999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.83280000000001</v>
+        <v>-22.95560000000002</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.04660000000003</v>
+        <v>-22.08910000000003</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.95649999999999</v>
+        <v>13.10909999999999</v>
       </c>
     </row>
     <row r="22">
